--- a/biology/Zoologie/Chelifer_cancroides/Chelifer_cancroides.xlsx
+++ b/biology/Zoologie/Chelifer_cancroides/Chelifer_cancroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chelifer cancroides, unique représentant du genre Chelifer, est une espèce de pseudoscorpions de la famille des Cheliferidae. Ce pseudoscorpion peut être nommé scorpion des livres ou chélifère cancroïde.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est cosmopolite[1]. Elle a été observée :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est cosmopolite. Elle a été observée :
 en Espagne, en France, au Luxembourg, en Belgique, aux Pays-Bas, au Royaume-Uni, en Irlande, en Islande, en Norvège, au Danemark, en Suède, en Finlande, en Estonie, en Lettonie, en Pologne, en Allemagne, en Suisse, en Italie, en Autriche, en Tchéquie, en Slovaquie, en Hongrie, en Croatie, en Bosnie-Herzégovine, en Serbie, en Albanie, en Macédoine du Nord, en Grèce, en Bulgarie, en Roumanie, en Russie, en Géorgie et en Azerbaïdjan ;
 en Turquie, en Israël, en Afghanistan, au Turkménistan, au Kirghizistan, au Ouzbékistan, au Kazakhstan, en Mongolie, en Inde, en Viêt Nam et en Japon ;
 en Algérie, en Égypte, en Ghana, en Éthiopie, au Kenya, en Tanzanie, au Congo-Kinshasa, au Malawi, à Madagascar et en Afrique du Sud ;
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce mesure de 2,5 à 4,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mesure de 2,5 à 4,5 mm.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 Chelifer cancroides cancroides (Linnaeus, 1758) cosmopolite
 Chelifer cancroides orientalis Morikawa, 1954 du Japon</t>
         </is>
@@ -609,7 +627,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).
 Geoffroy, 1762 : Histoire abrégée des insectes qui se trouvent aux environs de Paris ; dans laquelle ces animaux sont rangés suivant un ordre méthodique. vol. 2. Durand, Paris (texte intégral).
